--- a/data/Plots_AccidentCount.xlsx
+++ b/data/Plots_AccidentCount.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Documents\GitHub\DW_ScalaScripts\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Documents\GitHub\hpi-vehicle-collective-data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54B7955-2B8D-4CF8-A53A-748904F4C1C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E370A7-E9F7-4BCA-80A9-03B443883E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18465" windowHeight="10996" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18451" windowHeight="10996" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="companies by year" sheetId="2" r:id="rId1"/>
@@ -1203,6 +1203,45 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Accidents</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> with Self-Driving Cars per Year </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>California - US</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1279,8 +1318,9 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1321,6 +1361,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'accidents by year'!$A$4:$A$10</c:f>
@@ -1465,6 +1563,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accidents</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1508,37 +1661,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1586,7 +1708,6 @@
         <c14:dropZoneFilter val="1"/>
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
@@ -4877,7 +4998,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DAA1082F-9D86-47B0-AB74-DABA8A2C826C}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DAA1082F-9D86-47B0-AB74-DABA8A2C826C}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -5552,7 +5673,7 @@
   <dimension ref="A3:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5933,8 +6054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
